--- a/docs/StructureDefinition-bc-license-status-extension.xlsx
+++ b/docs/StructureDefinition-bc-license-status-extension.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$32</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="89">
   <si>
     <t>Path</t>
   </si>
@@ -176,7 +176,7 @@
     <t>Extension.extension</t>
   </si>
   <si>
-    <t>4</t>
+    <t>3</t>
   </si>
   <si>
     <t xml:space="preserve">Extension
@@ -276,20 +276,17 @@
 </t>
   </si>
   <si>
-    <t>eventId</t>
+    <t>statusReasonCode</t>
+  </si>
+  <si>
+    <t>endReasonCode</t>
+  </si>
+  <si>
+    <t>custodianId</t>
   </si>
   <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>statusReasonCode</t>
-  </si>
-  <si>
-    <t>endReasonCode</t>
-  </si>
-  <si>
-    <t>custodianId</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-license-status-extension</t>
@@ -445,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ37"/>
+  <dimension ref="A1:AJ32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2437,7 +2434,7 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>72</v>
@@ -2517,14 +2514,14 @@
         <v>51</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>45</v>
@@ -2856,7 +2853,7 @@
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="R24" t="s" s="2">
         <v>37</v>
@@ -3021,7 +3018,7 @@
         <v>51</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>37</v>
@@ -3360,7 +3357,7 @@
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R29" t="s" s="2">
         <v>37</v>
@@ -3445,7 +3442,7 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>72</v>
@@ -3520,25 +3517,23 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>87</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>37</v>
@@ -3547,22 +3542,24 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>66</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>67</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="R31" t="s" s="2">
         <v>37</v>
@@ -3604,27 +3601,27 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>37</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3635,7 +3632,7 @@
         <v>38</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>37</v>
@@ -3647,13 +3644,13 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -3704,7 +3701,7 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>38</v>
@@ -3716,518 +3713,14 @@
         <v>37</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>37</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" hidden="true">
-      <c r="A33" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>53</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>54</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>55</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" hidden="true">
-      <c r="A34" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" hidden="true">
-      <c r="A36" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>64</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>67</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>68</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="37" hidden="true">
-      <c r="A37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
         <v>69</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AJ37">
+  <autoFilter ref="A1:AJ32">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4237,7 +3730,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI36">
+  <conditionalFormatting sqref="A2:AI31">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-bc-license-status-extension.xlsx
+++ b/docs/StructureDefinition-bc-license-status-extension.xlsx
@@ -6,16 +6,134 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AJ$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AJ$32</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="124">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-license-status-extension</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.1.0</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>LicenseStatusExtension</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>BC License Status Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2021-11-12T14:42:25-07:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>BC Ministry of Health</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Tracking the status and changes to the status of a practitioner/organization license.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>complex-type</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>element:Element</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -125,9 +243,6 @@
     <t>Mapping: RIM Mapping</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -135,12 +250,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>BC License Status Extension</t>
-  </si>
-  <si>
-    <t>Tracking the status and changes to the status of a practitioner/organization license.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -287,9 +396,6 @@
   <si>
     <t xml:space="preserve">Identifier
 </t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ca-bc/provider/StructureDefinition/bc-license-status-extension</t>
   </si>
   <si>
     <t>base64Binary
@@ -442,9 +548,188 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AJ32"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -491,3232 +776,3232 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>35</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
